--- a/excel/message/20190812_message.xlsx
+++ b/excel/message/20190812_message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>姓名</t>
   </si>
@@ -43,6 +43,12 @@
     <t>是否有意向</t>
   </si>
   <si>
+    <t>留言类型</t>
+  </si>
+  <si>
+    <t>来源网址</t>
+  </si>
+  <si>
     <t>郭某人</t>
   </si>
   <si>
@@ -70,6 +76,12 @@
     <t>是</t>
   </si>
   <si>
+    <t>在线</t>
+  </si>
+  <si>
+    <t>www.test.com/index.php?kk=123&amp;pp=458</t>
+  </si>
+  <si>
     <t>鄙人</t>
   </si>
   <si>
@@ -89,6 +101,12 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t>www.test.com/index.php?yy=123&amp;pp=458</t>
   </si>
 </sst>
 </file>
@@ -96,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -115,23 +133,98 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +238,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -153,20 +262,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,92 +270,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,19 +293,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,163 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +484,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -486,8 +522,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -504,32 +542,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,165 +570,172 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1065,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="2"/>
@@ -1083,13 +1102,13 @@
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="16.1851851851852" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="24" style="1" customWidth="1"/>
+    <col min="11" max="11" width="46.5740740740741" style="1" customWidth="1"/>
     <col min="12" max="12" width="22.6666666666667" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.1666666666667" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,67 +1136,89 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" display="www.test.com/index.php?kk=123&amp;pp=458" tooltip="http://www.test.com/index.php?kk=123&amp;pp=458"/>
+    <hyperlink ref="K3" r:id="rId2" display="www.test.com/index.php?yy=123&amp;pp=458" tooltip="http://www.test.com/index.php?yy=123&amp;pp=458"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
